--- a/_resource/excel/0000-Template.xlsx
+++ b/_resource/excel/0000-Template.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>描述说明</t>
   </si>
@@ -138,11 +138,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>cpp=Compound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>uint32set</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cpp=Compound</t>
+    <t>uint32vector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditiongroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticcondition</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,16 +710,16 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -719,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -742,15 +762,30 @@
         <v>19</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -770,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -790,7 +825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F7"/>
     </row>
   </sheetData>

--- a/_resource/excel/0000-Template.xlsx
+++ b/_resource/excel/0000-Template.xlsx
@@ -54,7 +54,8 @@
 repeat=1  表示字段id可以重复
 cpp=xxxx cpp生成的类名( 不填表示不生成 )
 lua=xxxx lua生成的类名
-c#=xxx c#生成的类名</t>
+c#=xxx c#生成的类名
+xml=xxxx 生成的xml文件名</t>
         </r>
       </text>
     </comment>
@@ -686,9 +687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/_resource/excel/0000-Template.xlsx
+++ b/_resource/excel/0000-Template.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>描述说明</t>
   </si>
@@ -164,6 +164,22 @@
   </si>
   <si>
     <t>staticcondition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"111"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"diamon":"3333"}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -279,13 +295,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +338,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,8 +728,8 @@
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.125" style="1" customWidth="1"/>
@@ -827,7 +857,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F7"/>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
